--- a/scrapePage/schedule_2024_05.xlsx
+++ b/scrapePage/schedule_2024_05.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dropbox\program_project\CFB\scrapePage\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{9E1249C2-67EC-4C14-B4F8-99D4048B47EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8AF2028C-E454-468A-8526-EDAC2C8EDB5A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="51840" windowHeight="21840" xr2:uid="{DB40E028-5B18-4027-9F29-476CC0D09DFE}"/>
+    <workbookView xWindow="51480" yWindow="5670" windowWidth="25440" windowHeight="15990" xr2:uid="{DB40E028-5B18-4027-9F29-476CC0D09DFE}"/>
   </bookViews>
   <sheets>
     <sheet name="schedule_2024_05" sheetId="1" r:id="rId1"/>
@@ -435,6 +435,7 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="12"/>
       <color rgb="FF2B2C2D"/>
       <name val="Arial"/>
@@ -802,10 +803,10 @@
   </cellStyleXfs>
   <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1183,8 +1184,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA30DFA8-DC3E-4836-B8F8-F69813346A6C}">
   <dimension ref="A1:C59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
-      <selection activeCell="A57" sqref="A57:C59"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1206,7 +1207,7 @@
       </c>
     </row>
     <row r="2" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="4" t="s">
         <v>88</v>
       </c>
     </row>
@@ -1222,18 +1223,18 @@
       </c>
     </row>
     <row r="4" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
+      <c r="A4" s="4" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="4" t="s">
+      <c r="A5" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="C5" s="3" t="s">
         <v>5</v>
       </c>
     </row>
@@ -1249,40 +1250,40 @@
       </c>
     </row>
     <row r="7" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
+      <c r="A7" s="4" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
+      <c r="A8" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="B8" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="C8" s="1" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="4" t="s">
+      <c r="A9" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B9" s="4" t="s">
+      <c r="B9" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C9" s="4" t="s">
+      <c r="C9" s="3" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" s="4" t="s">
+      <c r="A10" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B10" s="4" t="s">
+      <c r="B10" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C10" s="4" t="s">
+      <c r="C10" s="3" t="s">
         <v>5</v>
       </c>
     </row>
@@ -1364,13 +1365,13 @@
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" s="4" t="s">
+      <c r="A18" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="B18" s="4" t="s">
+      <c r="B18" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C18" s="4" t="s">
+      <c r="C18" s="3" t="s">
         <v>30</v>
       </c>
     </row>
@@ -1408,13 +1409,13 @@
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" s="4" t="s">
+      <c r="A22" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="B22" s="4" t="s">
+      <c r="B22" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="C22" s="4" t="s">
+      <c r="C22" s="3" t="s">
         <v>40</v>
       </c>
     </row>
@@ -1430,24 +1431,24 @@
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24" s="2" t="s">
+      <c r="A24" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="B24" s="2" t="s">
+      <c r="B24" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="C24" s="2" t="s">
+      <c r="C24" s="1" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25" s="2" t="s">
+      <c r="A25" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="B25" s="2" t="s">
+      <c r="B25" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="C25" s="2" t="s">
+      <c r="C25" s="1" t="s">
         <v>5</v>
       </c>
     </row>
@@ -1485,13 +1486,13 @@
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A29" s="4" t="s">
+      <c r="A29" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="B29" s="4" t="s">
+      <c r="B29" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="C29" s="4" t="s">
+      <c r="C29" s="3" t="s">
         <v>9</v>
       </c>
     </row>
@@ -1573,13 +1574,13 @@
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A37" s="4" t="s">
+      <c r="A37" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="B37" s="4" t="s">
+      <c r="B37" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="C37" s="4" t="s">
+      <c r="C37" s="3" t="s">
         <v>30</v>
       </c>
     </row>
@@ -1595,13 +1596,13 @@
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A39" s="2" t="s">
+      <c r="A39" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="B39" s="2" t="s">
+      <c r="B39" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="C39" s="2" t="s">
+      <c r="C39" s="1" t="s">
         <v>60</v>
       </c>
     </row>
@@ -1661,13 +1662,13 @@
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A45" s="4" t="s">
+      <c r="A45" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="B45" s="4" t="s">
+      <c r="B45" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="C45" s="4" t="s">
+      <c r="C45" s="3" t="s">
         <v>5</v>
       </c>
     </row>
@@ -1716,24 +1717,24 @@
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A50" s="3" t="s">
+      <c r="A50" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="B50" s="3" t="s">
+      <c r="B50" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C50" s="3" t="s">
+      <c r="C50" s="2" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A51" s="4" t="s">
+      <c r="A51" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="B51" s="4" t="s">
+      <c r="B51" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C51" s="4" t="s">
+      <c r="C51" s="3" t="s">
         <v>76</v>
       </c>
     </row>
@@ -1749,13 +1750,13 @@
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A53" s="2" t="s">
+      <c r="A53" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="B53" s="2" t="s">
+      <c r="B53" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="C53" s="2" t="s">
+      <c r="C53" s="1" t="s">
         <v>60</v>
       </c>
     </row>
@@ -1771,13 +1772,13 @@
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A55" s="4" t="s">
+      <c r="A55" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="B55" s="4" t="s">
+      <c r="B55" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C55" s="4" t="s">
+      <c r="C55" s="3" t="s">
         <v>30</v>
       </c>
     </row>
@@ -1793,35 +1794,35 @@
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A57" s="4" t="s">
+      <c r="A57" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="B57" s="4" t="s">
+      <c r="B57" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C57" s="4" t="s">
+      <c r="C57" s="3" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A58" s="4" t="s">
+      <c r="A58" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="B58" s="4" t="s">
+      <c r="B58" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="C58" s="4" t="s">
+      <c r="C58" s="3" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A59" s="4" t="s">
+      <c r="A59" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="B59" s="4" t="s">
+      <c r="B59" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="C59" s="4" t="s">
+      <c r="C59" s="3" t="s">
         <v>5</v>
       </c>
     </row>
